--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE8224-6909-463A-953A-28F401D95AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A2DD1-B72D-4115-ABA8-01B912922BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1171,7 @@
         <v>54</v>
       </c>
       <c r="E16" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
         <v>20000000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A2DD1-B72D-4115-ABA8-01B912922BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BFB72-95D5-49EA-B793-8A5724D86D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1092,7 @@
         <v>6E-10</v>
       </c>
       <c r="F14" s="1">
-        <v>20000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1174,7 +1174,7 @@
         <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
-        <v>20000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="G16" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BFB72-95D5-49EA-B793-8A5724D86D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF21D03-AAE1-461E-9695-4833A98973C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,7 +900,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>50000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -1092,7 +1092,7 @@
         <v>6E-10</v>
       </c>
       <c r="F14" s="1">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1133,7 +1133,7 @@
         <v>7.9999999999999995E-11</v>
       </c>
       <c r="F15" s="1">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="G15" s="1">
         <v>-1</v>
@@ -1174,7 +1174,7 @@
         <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="G16" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF21D03-AAE1-461E-9695-4833A98973C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD519DCD-1362-46F7-B03A-37394134FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="45030" yWindow="-2310" windowWidth="28560" windowHeight="14310" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1092,7 @@
         <v>6E-10</v>
       </c>
       <c r="F14" s="1">
-        <v>40000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1133,7 +1133,7 @@
         <v>7.9999999999999995E-11</v>
       </c>
       <c r="F15" s="1">
-        <v>40000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="G15" s="1">
         <v>-1</v>
@@ -1174,7 +1174,7 @@
         <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
-        <v>40000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="G16" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD519DCD-1362-46F7-B03A-37394134FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D02C33-AA06-45FB-AC5F-D9B699BA0975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45030" yWindow="-2310" windowWidth="28560" windowHeight="14310" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,19 @@
     <t>4대 천선 보상
 설화천선의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic15</t>
+  </si>
+  <si>
+    <t>용인의 영혼</t>
+  </si>
+  <si>
+    <t>weapon140</t>
+  </si>
+  <si>
+    <t>용술사 보상
+용술사의 검 필요</t>
   </si>
 </sst>
 </file>
@@ -630,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,6 +1209,47 @@
       </c>
       <c r="M16">
         <v>7228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5E-11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50000000000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <v>7264</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D02C33-AA06-45FB-AC5F-D9B699BA0975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CB67A9-B7BA-4941-919A-7C3CD21347C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>100000000000</v>
+        <v>150000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -1105,7 +1105,7 @@
         <v>6E-10</v>
       </c>
       <c r="F14" s="1">
-        <v>50000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1146,7 +1146,7 @@
         <v>7.9999999999999995E-11</v>
       </c>
       <c r="F15" s="1">
-        <v>50000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="G15" s="1">
         <v>-1</v>
@@ -1187,7 +1187,7 @@
         <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
-        <v>50000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="G16" s="1">
         <v>-1</v>
@@ -1228,7 +1228,7 @@
         <v>1.5E-11</v>
       </c>
       <c r="F17" s="1">
-        <v>50000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="G17" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CB67A9-B7BA-4941-919A-7C3CD21347C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1493065-99E3-45EB-8E90-2050A2BB1D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,23 @@
   <si>
     <t>용술사 보상
 용술사의 검 필요</t>
+  </si>
+  <si>
+    <t>relic16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해신의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이 태자 보상
+가람태자의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -643,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1250,6 +1267,47 @@
       </c>
       <c r="M17">
         <v>7264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.4999999999999999E-13</v>
+      </c>
+      <c r="F18" s="1">
+        <v>120000000000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="1">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18">
+        <v>7274</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1493065-99E3-45EB-8E90-2050A2BB1D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E925EC-9872-42E5-A127-D99939B81F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E925EC-9872-42E5-A127-D99939B81F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCA7F2-875E-45DA-9EF3-28372ACEF3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>6E-10</v>
       </c>
       <c r="F14" s="1">
-        <v>60000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1163,7 +1163,7 @@
         <v>7.9999999999999995E-11</v>
       </c>
       <c r="F15" s="1">
-        <v>60000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G15" s="1">
         <v>-1</v>
@@ -1204,7 +1204,7 @@
         <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
-        <v>60000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G16" s="1">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>1.5E-11</v>
       </c>
       <c r="F17" s="1">
-        <v>60000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G17" s="1">
         <v>-1</v>
@@ -1286,7 +1286,7 @@
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="F18" s="1">
-        <v>120000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="G18" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FCA7F2-875E-45DA-9EF3-28372ACEF3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16316BBA-896A-4501-BD5D-9FD7CFF9B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -652,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +663,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16316BBA-896A-4501-BD5D-9FD7CFF9B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F6C5F-AE34-473D-B109-50682B581403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,23 @@
   <si>
     <t>쌍둥이 태자 보상
 가람태자의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명상제 보상
+광명상제의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1300,7 @@
         <v>101</v>
       </c>
       <c r="E18" s="1">
-        <v>1.4999999999999999E-13</v>
+        <v>5.9999999999999997E-13</v>
       </c>
       <c r="F18" s="1">
         <v>200000000000</v>
@@ -1308,6 +1325,47 @@
       </c>
       <c r="M18">
         <v>7274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.4999999999999999E-13</v>
+      </c>
+      <c r="F19" s="1">
+        <v>200000000000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <v>1051</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F6C5F-AE34-473D-B109-50682B581403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0E5C20-13CF-4820-A5F9-96DEB26B799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1303,7 @@
         <v>5.9999999999999997E-13</v>
       </c>
       <c r="F18" s="1">
-        <v>200000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G18" s="1">
         <v>-1</v>
@@ -1344,7 +1344,7 @@
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="F19" s="1">
-        <v>200000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G19" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0E5C20-13CF-4820-A5F9-96DEB26B799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B92F29-796C-41E9-9AF7-B74C0F42F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,7 +947,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>150000000000</v>
+        <v>500000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -1139,7 +1139,7 @@
         <v>6E-10</v>
       </c>
       <c r="F14" s="1">
-        <v>100000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G14" s="1">
         <v>-1</v>
@@ -1180,7 +1180,7 @@
         <v>7.9999999999999995E-11</v>
       </c>
       <c r="F15" s="1">
-        <v>100000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G15" s="1">
         <v>-1</v>
@@ -1221,7 +1221,7 @@
         <v>1.9999999999999999E-11</v>
       </c>
       <c r="F16" s="1">
-        <v>100000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G16" s="1">
         <v>-1</v>
@@ -1262,7 +1262,7 @@
         <v>1.5E-11</v>
       </c>
       <c r="F17" s="1">
-        <v>100000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G17" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B92F29-796C-41E9-9AF7-B74C0F42F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5CB0D4-84EE-48E3-AAA8-6F8D392F17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,22 @@
   <si>
     <t>광명상제 보상
 광명상제의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic18</t>
+  </si>
+  <si>
+    <t>지옥도의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초광대왕 보상
+초광대왕의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1366,6 +1382,47 @@
       </c>
       <c r="M19">
         <v>1051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.5000000000000001E-14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>300000000000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20">
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
